--- a/24-ValidateursFHIR/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/24-ValidateursFHIR/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T08:18:02+00:00</t>
+    <t>2025-09-08T08:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/24-ValidateursFHIR/ig/StructureDefinition-tddui-documentreference.xlsx
+++ b/24-ValidateursFHIR/ig/StructureDefinition-tddui-documentreference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T08:28:10+00:00</t>
+    <t>2025-09-08T08:37:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
